--- a/src/main/resources/AutoTestData.xlsx
+++ b/src/main/resources/AutoTestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>Test No</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>nhv</t>
+  </si>
+  <si>
+    <t>212134</t>
+  </si>
+  <si>
+    <t>Expected Text</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -732,7 +738,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -777,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -870,8 +876,8 @@
       <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1">
-        <v>212134</v>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>38</v>
